--- a/cms/sound/音乐音效资源总表.xlsx
+++ b/cms/sound/音乐音效资源总表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/cms/ms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/美术资源提交/cms/sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="2980" windowWidth="26160" windowHeight="14380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="12440" yWindow="1920" windowWidth="26160" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="116">
   <si>
     <t>音效名</t>
     <rPh sb="0" eb="1">
@@ -861,6 +861,91 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_yueguangsenlin11.ogg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年08月29日</t>
+  </si>
+  <si>
+    <t>2015年08月29日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年08月22日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时背景音乐放慢速度，通用技能音效缩短</t>
+    <rPh sb="0" eb="1">
+      <t>lin'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bei'jign</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin'yue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang'man</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>su'du</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tong'yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yin'xiao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>suo'duan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本背景音乐临时资源</t>
+  </si>
+  <si>
+    <t>副本音乐2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年08月22日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩短音效</t>
+  </si>
+  <si>
+    <t>缩短音效</t>
+    <rPh sb="0" eb="1">
+      <t>suo'duan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'xiao</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -870,9 +955,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yy/m/d;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,6 +1033,20 @@
       <b/>
       <sz val="11"/>
       <color indexed="81"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="136"/>
     </font>
@@ -1090,11 +1189,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1179,7 +1279,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1188,10 +1288,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1204,8 +1304,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -1484,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1552,9 +1666,15 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="26"/>
@@ -1679,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1693,7 +1813,7 @@
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>65</v>
       </c>
@@ -1701,17 +1821,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
     </row>
-    <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>68</v>
@@ -1735,7 +1855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>69</v>
       </c>
@@ -1748,8 +1868,8 @@
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="39">
-        <v>42238</v>
+      <c r="E5" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>95</v>
@@ -1759,7 +1879,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="9" t="s">
         <v>71</v>
@@ -1770,8 +1890,8 @@
       <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="36">
-        <v>42238</v>
+      <c r="E6" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>95</v>
@@ -1781,7 +1901,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="9" t="s">
         <v>72</v>
@@ -1792,18 +1912,18 @@
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="36">
-        <v>42238</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>94</v>
+      <c r="E7" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="9" t="s">
         <v>73</v>
@@ -1814,11 +1934,11 @@
       <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="36">
-        <v>42238</v>
+      <c r="E8" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>94</v>
@@ -1826,7 +1946,7 @@
       <c r="H8" s="10"/>
       <c r="J8" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="9" t="s">
         <v>74</v>
@@ -1837,8 +1957,8 @@
       <c r="D9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36">
-        <v>42238</v>
+      <c r="E9" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>95</v>
@@ -1849,7 +1969,7 @@
       <c r="H9" s="10"/>
       <c r="J9" s="25"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="9" t="s">
         <v>75</v>
@@ -1860,8 +1980,8 @@
       <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="36">
-        <v>42238</v>
+      <c r="E10" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>95</v>
@@ -1872,7 +1992,7 @@
       <c r="H10" s="10"/>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="9" t="s">
         <v>76</v>
@@ -1883,18 +2003,18 @@
       <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="36">
-        <v>42238</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>94</v>
+      <c r="E11" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>77</v>
@@ -1905,8 +2025,8 @@
       <c r="D12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="36">
-        <v>42238</v>
+      <c r="E12" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>95</v>
@@ -1915,8 +2035,11 @@
         <v>94</v>
       </c>
       <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="36"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="9" t="s">
         <v>78</v>
@@ -1927,8 +2050,8 @@
       <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="36">
-        <v>42238</v>
+      <c r="E13" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>95</v>
@@ -1938,7 +2061,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="9" t="s">
         <v>79</v>
@@ -1949,18 +2072,18 @@
       <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="36">
-        <v>42238</v>
+      <c r="E14" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>94</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="9" t="s">
         <v>80</v>
@@ -1971,18 +2094,18 @@
       <c r="D15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="36">
-        <v>42238</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>94</v>
+      <c r="E15" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="9" t="s">
         <v>81</v>
@@ -1993,11 +2116,11 @@
       <c r="D16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="36">
-        <v>42238</v>
+      <c r="E16" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>94</v>
@@ -2015,14 +2138,14 @@
       <c r="D17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="36">
-        <v>42238</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>94</v>
+      <c r="E17" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="H17" s="10"/>
     </row>
@@ -2037,11 +2160,11 @@
       <c r="D18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="36">
-        <v>42238</v>
+      <c r="E18" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>94</v>
@@ -2059,14 +2182,14 @@
       <c r="D19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="36">
-        <v>42238</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>94</v>
+      <c r="E19" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -2081,11 +2204,11 @@
       <c r="D20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="36">
-        <v>42238</v>
+      <c r="E20" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>94</v>
@@ -2103,14 +2226,14 @@
       <c r="D21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="36">
-        <v>42238</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>94</v>
+      <c r="E21" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -2125,11 +2248,11 @@
       <c r="D22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="36">
-        <v>42238</v>
+      <c r="E22" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>94</v>
@@ -2147,14 +2270,14 @@
       <c r="D23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="36">
-        <v>42238</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>94</v>
+      <c r="E23" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="H23" s="10"/>
     </row>
@@ -2169,11 +2292,11 @@
       <c r="D24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="36">
-        <v>42238</v>
+      <c r="E24" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>94</v>
@@ -2191,14 +2314,14 @@
       <c r="D25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="36">
-        <v>42238</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>94</v>
+      <c r="E25" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="H25" s="10"/>
     </row>
@@ -2213,11 +2336,11 @@
       <c r="D26" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="36">
-        <v>42238</v>
+      <c r="E26" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>94</v>
@@ -2235,14 +2358,14 @@
       <c r="D27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="36">
-        <v>42238</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>94</v>
+      <c r="E27" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="H27" s="10"/>
     </row>
@@ -2251,30 +2374,30 @@
       <c r="B28" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="40">
-        <v>42238</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="20"/>
+      <c r="E28" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="16"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="10"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" s="16"/>
@@ -2471,6 +2594,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2479,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2543,25 +2667,37 @@
       <c r="D5" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="39">
-        <v>42238</v>
+      <c r="E5" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>95</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="B6" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>109</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
